--- a/deliverables/asn3/asn3_marking_scheme - team10.xlsx
+++ b/deliverables/asn3/asn3_marking_scheme - team10.xlsx
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>42</v>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="40"/>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C30" s="52">
         <f>SUM(C22:C29)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D30" s="25"/>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C44" s="33">
         <f>SUM(C6,C10,C15,C21,C30,C33,C42)</f>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D44" s="31"/>
     </row>
@@ -1577,7 +1577,7 @@
       <c r="B45" s="30"/>
       <c r="C45" s="35">
         <f>C44/B44</f>
-        <v>0.95</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="D45" s="31"/>
     </row>
@@ -1588,7 +1588,7 @@
       <c r="B46" s="30"/>
       <c r="C46" s="33">
         <f>C45*7</f>
-        <v>6.6499999999999995</v>
+        <v>6.8833333333333329</v>
       </c>
       <c r="D46" s="31"/>
     </row>
